--- a/biology/Zoologie/Dryophytes_gratiosus/Dryophytes_gratiosus.xlsx
+++ b/biology/Zoologie/Dryophytes_gratiosus/Dryophytes_gratiosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryophytes gratiosus est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryophytes gratiosus est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dryophytes gratiosus est la plus grosse grenouille arboricole native des États-Unis. Elle mesure 5 à 7 cm. Elle peut avoir différentes couleurs mais est facilement reconnaissable aux marques rondes noires sur son dos. Des individus peuvent être verts brillant ou terne, bruns, jaunâtres ou gris. Elle a le bout des doigts ronds. Le mâle a un gros sac vocal.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique des États-Unis. Elle se rencontre dans les États de l'Est du pays[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique des États-Unis. Elle se rencontre dans les États de l'Est du pays :
 dans le nord du Delaware ;
 dans l'est du Maryland ;
 dans le sud-est de la Virginie ;
@@ -584,7 +600,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>LeConte, 1856 : Description of a new species of Hyla from Georgia. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 8, p. 146 (texte intégral).</t>
         </is>
